--- a/examples/tables/artifact/data/InfiniteDivs.data.xlsx
+++ b/examples/tables/artifact/data/InfiniteDivs.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/tables/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FBCAD0-C6E7-5B47-B91C-C677B47D11DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA20BE2D-8579-C34C-A3DE-8AC459D2E30C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>true</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>nexial.printErrorDetails</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:AAA200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -699,7 +702,12 @@
       <c r="AAA8" s="7"/>
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="HA9" s="6"/>
       <c r="AAA9" s="7"/>
     </row>
